--- a/data_script_readme_Martin_et_al_MHC_species_evolution.xlsx
+++ b/data_script_readme_Martin_et_al_MHC_species_evolution.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiemartin/Documents/GitHub/Martin-et-al.-submitted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34F1BB29-1964-0E4E-9086-A45CD7D3933A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE857588-6CEB-AD42-AD5E-0B9D149A0B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="980" windowWidth="29300" windowHeight="16120" activeTab="1" xr2:uid="{419048BB-6B79-FA40-9B6F-5B1E63E224A5}"/>
+    <workbookView xWindow="460" yWindow="980" windowWidth="29300" windowHeight="16120" xr2:uid="{419048BB-6B79-FA40-9B6F-5B1E63E224A5}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="scripts" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$2:$E$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$2:$E$59</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="170">
   <si>
     <t>analysis</t>
   </si>
@@ -375,21 +375,6 @@
     <t>coancestry_score_codon_usage_table_2025.csv</t>
   </si>
   <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>/Users/katiemartin/Documents/UCF/Research/MHC_species_evo/post_review_analysis/scripts/data</t>
-  </si>
-  <si>
-    <t>/Users/katiemartin/Documents/UCF/Research/MHC_species_evo/post_review_analysis/scripts/data/MHCI</t>
-  </si>
-  <si>
-    <t>/Users/katiemartin/Documents/UCF/Research/MHC_species_evo/post_review_analysis/scripts/data/MHCII_chr1</t>
-  </si>
-  <si>
-    <t>/Users/katiemartin/Documents/UCF/Research/MHC_species_evo/post_review_analysis/scripts/data/MHCII_combined</t>
-  </si>
-  <si>
     <t>MHCI_alignment_w_outgroup_trimmed_translationframe1.fasta</t>
   </si>
   <si>
@@ -568,6 +553,12 @@
   </si>
   <si>
     <t>Cc_Cm_codon_usage_distributions_MHCI.csv, Cc_Dc_codon_usage_distributions_MHCI.csv, Cc_Lk_codon_usage_distributions_MHCI.csv, Cm_Dc_codon_usage_distributions_MHCI.csv, Cm_Lk_codon_usage_distributions_MHCI.csv, Dc_Lk_codon_usage_distributions_MHCI.csv; Cc_Cm_codon_usage_distributions_MHCII.csv, Cc_Dc_codon_usage_distributions_MHCII.csv, Cc_Lk_codon_usage_distributions_MHCII.csv, Cm_Dc_codon_usage_distributions_MHCII.csv, Cm_Lk_codon_usage_distributions_MHCII.csv, Dc_Lk_codon_usage_distributions_MHCII.csv</t>
+  </si>
+  <si>
+    <t>run2_treeannotator_Yule_uniform.txt</t>
+  </si>
+  <si>
+    <t>BEAST tree from Phillips et al., for phylogenetic distance</t>
   </si>
 </sst>
 </file>
@@ -601,42 +592,12 @@
       <name val="Open Sans"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0D1FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -657,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -667,15 +628,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DD37D5-7F48-1040-982C-A2C23FAB41E3}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -1008,1002 +964,981 @@
     <col min="3" max="3" width="38" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="E19" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="40" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="40" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="1" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="C40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D54" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="E54" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="E55" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D56" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="E56" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D57" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="11" t="s">
+      <c r="E57" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>59</v>
@@ -2017,10 +1952,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>59</v>
@@ -2034,10 +1969,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>59</v>
@@ -2046,15 +1981,15 @@
         <v>89</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>59</v>
@@ -2063,14 +1998,31 @@
         <v>89</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E58" xr:uid="{87DD37D5-7F48-1040-982C-A2C23FAB41E3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F56">
-    <sortCondition ref="E3:E56"/>
-    <sortCondition ref="A3:A56"/>
+  <autoFilter ref="A2:E59" xr:uid="{87DD37D5-7F48-1040-982C-A2C23FAB41E3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E57">
+    <sortCondition ref="E3:E57"/>
+    <sortCondition ref="A3:A57"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2078,9 +2030,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D34A54F-D429-084B-879A-1094D57FECD1}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+    <sheetView zoomScale="86" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2144,7 +2096,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.3">
@@ -2192,7 +2144,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.3">
@@ -2204,7 +2156,7 @@
         <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.3">
@@ -2243,29 +2195,23 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="13"/>
-    </row>
     <row r="19" spans="4:4" ht="19" x14ac:dyDescent="0.3">
-      <c r="D19" s="6"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="4:4" ht="19" x14ac:dyDescent="0.3">
-      <c r="D20" s="6"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="4:4" ht="19" x14ac:dyDescent="0.3">
-      <c r="D21" s="6"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="4:4" ht="19" x14ac:dyDescent="0.3">
-      <c r="D22" s="6"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="4:4" ht="19" x14ac:dyDescent="0.3">
-      <c r="D23" s="6"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="4:4" ht="19" x14ac:dyDescent="0.3">
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="13"/>
+      <c r="D24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
